--- a/src/p5/S_DataPath.xlsx
+++ b/src/p5/S_DataPath.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snow/Desktop/Code/ComputerOrg/src/p5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05ECDFE-7C78-A14B-98F5-B170D2494CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9A830-BA78-E54D-81E8-C6EA20242664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="740" windowWidth="28920" windowHeight="16620" xr2:uid="{D8BFC3C9-EB09-6641-8169-D38E761CE894}"/>
   </bookViews>
@@ -449,9 +449,6 @@
     <t>EX_Rt_Data</t>
   </si>
   <si>
-    <t>PC4_Curernt</t>
-  </si>
-  <si>
     <t>D_RF_RD1</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>D_FWD_RT</t>
+  </si>
+  <si>
+    <t>PC4_Current</t>
   </si>
 </sst>
 </file>
@@ -743,12 +743,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -773,7 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,9 +853,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -870,14 +865,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,56 +887,83 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -960,9 +974,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D75014D-1FB6-8840-811C-99D82F09A23C}">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="144" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1296,8 +1307,10 @@
     <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="17.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="20" width="13.6640625" customWidth="1"/>
+    <col min="15" max="17" width="10.83203125" style="53"/>
+    <col min="18" max="18" width="14.6640625" style="53" customWidth="1"/>
+    <col min="19" max="20" width="13.6640625" style="53" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -1307,1113 +1320,1113 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="32" t="s">
+      <c r="N1" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="2"/>
+      <c r="O1" s="52"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="2"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="52"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="33"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="33"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="31"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="33"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="31"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="33"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="27" t="s">
+      <c r="L7" s="17"/>
+      <c r="M7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="66"/>
+      <c r="B11" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="65"/>
+      <c r="B13" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="31"/>
+      <c r="O13" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="66"/>
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="N7" s="33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="D19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="32"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" s="33"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
+      <c r="L20" s="19"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="31"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="31"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="67"/>
+      <c r="B25" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="21"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="32"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="68"/>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="31"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="31"/>
+    </row>
+    <row r="34" spans="1:14" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="32"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="31"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="31"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="31"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="33"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="33"/>
-      <c r="O12" s="54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="33"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="33"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="N16" s="33"/>
-      <c r="O16" s="27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="33"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="33"/>
-    </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="34"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="33"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="33"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="33"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="O25" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="33"/>
-    </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="34"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="33"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
-      <c r="B32" s="6" t="s">
+      <c r="B38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="24"/>
+      <c r="M38" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="60"/>
+      <c r="B39" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="33"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="33"/>
-    </row>
-    <row r="34" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="34"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="C39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="33"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="33"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="33"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="N38" s="33" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="31" t="s">
+      <c r="L39" s="24"/>
+      <c r="M39" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N39" s="33" t="s">
+      <c r="N39" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C42" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="3" t="s">
+      <c r="D42" s="72"/>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="70" t="s">
         <v>89</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="69">
         <v>1</v>
       </c>
-      <c r="D43" s="57"/>
+      <c r="D43" s="69"/>
       <c r="E43" s="1">
         <v>1</v>
       </c>
@@ -2437,14 +2450,14 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="57">
+      <c r="C44" s="69">
         <v>1</v>
       </c>
-      <c r="D44" s="57"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="1" t="s">
         <v>47</v>
       </c>
@@ -2473,13 +2486,13 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="57">
+      <c r="C46" s="69">
         <v>1</v>
       </c>
-      <c r="D46" s="57"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="1">
         <v>1</v>
       </c>
@@ -2506,13 +2519,13 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="69">
         <v>0</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="69"/>
       <c r="E47" s="1">
         <v>0</v>
       </c>
@@ -2539,13 +2552,13 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="69">
         <v>0</v>
       </c>
-      <c r="D48" s="57"/>
+      <c r="D48" s="69"/>
       <c r="E48" s="1">
         <v>0</v>
       </c>
@@ -2571,41 +2584,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-    </row>
-    <row r="50" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H50" s="41" t="s">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="36"/>
+    </row>
+    <row r="50" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="I50" s="75" t="s">
+      <c r="I50" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75" t="s">
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-    </row>
-    <row r="51" spans="1:21" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="42" t="s">
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="77"/>
+    </row>
+    <row r="51" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="75" t="s">
+      <c r="B51" s="40"/>
+      <c r="C51" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="75"/>
-      <c r="E51" s="41" t="s">
+      <c r="D51" s="77"/>
+      <c r="E51" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="41" t="s">
+      <c r="F51" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="41" t="s">
+      <c r="G51" s="38" t="s">
         <v>103</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -2629,34 +2642,22 @@
       <c r="O51" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R51" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="S51" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="T51" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="U51" s="43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="57" t="s">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="69" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="57"/>
+      <c r="D52" s="69"/>
       <c r="E52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="36" t="s">
         <v>109</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2668,7 +2669,7 @@
       <c r="J52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K52" s="40"/>
+      <c r="K52" s="37"/>
       <c r="L52" s="1" t="s">
         <v>123</v>
       </c>
@@ -2678,34 +2679,21 @@
       <c r="N52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O52" s="40"/>
-      <c r="Q52" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="R52" s="76" t="s">
-        <v>139</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U52" s="46"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
+      <c r="O52" s="37"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="69"/>
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="57"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="38" t="s">
+      <c r="F53" s="36" t="s">
         <v>110</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -2717,7 +2705,7 @@
       <c r="J53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K53" s="40"/>
+      <c r="K53" s="37"/>
       <c r="L53" s="1" t="s">
         <v>123</v>
       </c>
@@ -2727,36 +2715,23 @@
       <c r="N53" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O53" s="44"/>
-      <c r="Q53" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U53" s="47"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
+      <c r="O53" s="55"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="69" t="s">
         <v>95</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="71"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="F54" s="36" t="s">
         <v>111</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2769,7 +2744,7 @@
         <v>122</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>123</v>
@@ -2783,35 +2758,21 @@
       <c r="O54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q54" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U54" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="69"/>
       <c r="B55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="57"/>
+      <c r="D55" s="69"/>
       <c r="E55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F55" s="36" t="s">
         <v>112</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -2824,7 +2785,7 @@
         <v>122</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>123</v>
@@ -2838,47 +2799,32 @@
       <c r="O55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q55" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U55" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="57" t="s">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57" t="s">
+      <c r="D56" s="69"/>
+      <c r="E56" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="71" t="s">
+      <c r="F56" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="H56" s="57"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="57" t="s">
-        <v>138</v>
+      <c r="H56" s="69"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="69" t="s">
+        <v>143</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>123</v>
@@ -2892,32 +2838,19 @@
       <c r="O56" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q56" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="R56" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="S56" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="T56" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="U56" s="70"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="57"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="69"/>
       <c r="L57" s="1" t="s">
         <v>123</v>
       </c>
@@ -2930,23 +2863,114 @@
       <c r="O57" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="57"/>
-      <c r="U57" s="70"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="L58" s="72" t="s">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L58" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="M58" s="73"/>
-      <c r="N58" s="74"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
+      <c r="M58" s="75"/>
+      <c r="N58" s="76"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" s="49"/>
+      <c r="B60" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="51"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="50"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" s="58"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="56"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2988,11 +3012,11 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="U56:U57"/>
-    <mergeCell ref="T56:T57"/>
-    <mergeCell ref="S56:S57"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C65:C66"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
